--- a/Inventory/order deduction.xlsx
+++ b/Inventory/order deduction.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC4\Desktop\Daily Work\Curent Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tirth\Documents\GitHub\Automation-of-Operations-for-Zola\Inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F2D599-D5FD-4A7A-B88C-F52603DFC190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="150">
   <si>
     <t>Lineitem sku</t>
   </si>
@@ -35,448 +47,451 @@
     <t>030062-Green-M</t>
   </si>
   <si>
-    <t>S0300622400M0109</t>
-  </si>
-  <si>
     <t>043240-Red-M</t>
   </si>
   <si>
-    <t>S0432409600M1731</t>
-  </si>
-  <si>
     <t>055634-Onion -L</t>
   </si>
   <si>
-    <t>S0556340800L0256</t>
-  </si>
-  <si>
     <t>064291-Dx Blue -L</t>
   </si>
   <si>
-    <t>S0642919700L0748</t>
-  </si>
-  <si>
     <t>064291-Dx Blue -XL</t>
   </si>
   <si>
-    <t>S064291970XL0748</t>
-  </si>
-  <si>
     <t>064313-Blue -L</t>
   </si>
   <si>
-    <t>S0643139700L0204</t>
-  </si>
-  <si>
     <t>064313-LightGreen -M</t>
   </si>
   <si>
-    <t>S0643139700M0215</t>
-  </si>
-  <si>
     <t>064313-LightGreen -XL</t>
   </si>
   <si>
-    <t>S064313970XL0215</t>
-  </si>
-  <si>
     <t>064313-Onion-2XL</t>
   </si>
   <si>
-    <t>S06431397XXL0256</t>
-  </si>
-  <si>
     <t>064338-NavyBlue -2XL</t>
   </si>
   <si>
-    <t>S06433897XXL0223</t>
-  </si>
-  <si>
     <t>064340-Green -M</t>
   </si>
   <si>
-    <t>S0643409700M0209</t>
-  </si>
-  <si>
     <t>064340-Grey -XL</t>
   </si>
   <si>
-    <t>S064340970XL0210</t>
-  </si>
-  <si>
     <t>064343-Orange -2XL</t>
   </si>
   <si>
-    <t>S06434397XXL0227</t>
-  </si>
-  <si>
     <t>085151-Grey-M</t>
   </si>
   <si>
-    <t>S0851512400M0110</t>
-  </si>
-  <si>
     <t>085151-Light Green-L</t>
   </si>
   <si>
-    <t>S0851512400L0115</t>
-  </si>
-  <si>
     <t>085151-Navy Blue-2XL</t>
   </si>
   <si>
-    <t>S08515124XXL0123</t>
-  </si>
-  <si>
     <t>085241-Maroon-3XL</t>
   </si>
   <si>
-    <t>S085241243XL0118</t>
-  </si>
-  <si>
     <t>085253-Green-3XL</t>
   </si>
   <si>
-    <t>S085253243XL0109</t>
-  </si>
-  <si>
     <t>085264-SKY BLUE-5XL</t>
   </si>
   <si>
-    <t>S085264245XL0135</t>
-  </si>
-  <si>
     <t>085268-Navy Blue-M</t>
   </si>
   <si>
-    <t>S0852682400M0123</t>
-  </si>
-  <si>
     <t>094116-Blue-2XL</t>
   </si>
   <si>
-    <t>S09411624XXL0104</t>
-  </si>
-  <si>
     <t>094116-Blue-L</t>
   </si>
   <si>
-    <t>S0941162400L0104</t>
-  </si>
-  <si>
     <t>094118-Yellow-L</t>
   </si>
   <si>
-    <t>S0941182400L0141</t>
-  </si>
-  <si>
     <t>094120-Navy Blue-2XL</t>
   </si>
   <si>
-    <t>S09412024XXL0123</t>
-  </si>
-  <si>
     <t>094120-Navy Blue-L</t>
   </si>
   <si>
-    <t>S0941202400L0123</t>
-  </si>
-  <si>
     <t>09a020-Navy Blue-2XL</t>
   </si>
   <si>
-    <t>S09A02008XXL0223</t>
-  </si>
-  <si>
     <t>09A022-Pink-2XL</t>
   </si>
   <si>
-    <t>S09A02208XXL0229</t>
-  </si>
-  <si>
     <t>15a008-Black-M</t>
   </si>
   <si>
-    <t>S15A0082400M0103</t>
-  </si>
-  <si>
     <t>180501-Stone Blue-48</t>
   </si>
   <si>
-    <t>S180501370480749</t>
-  </si>
-  <si>
     <t>180514-Fawn -40</t>
   </si>
   <si>
-    <t>S180514070400755</t>
-  </si>
-  <si>
     <t>219732-Navy Blue-XL</t>
   </si>
   <si>
-    <t>S219732240XL0223</t>
-  </si>
-  <si>
     <t>219775-Grey-XL</t>
   </si>
   <si>
-    <t>S219775970XL0210</t>
-  </si>
-  <si>
     <t>220732-Beige-3XL</t>
   </si>
   <si>
-    <t>S220732243XL1355</t>
-  </si>
-  <si>
     <t>220732-Beige-5XL</t>
   </si>
   <si>
-    <t>S220732245XL1355</t>
-  </si>
-  <si>
     <t>220732-Grey-4XL</t>
   </si>
   <si>
-    <t>S220732244XL1346</t>
-  </si>
-  <si>
     <t>220732-Lemon-3XL</t>
   </si>
   <si>
-    <t>S220732243XL1341</t>
-  </si>
-  <si>
     <t>220732-Navy Blue -5XL</t>
   </si>
   <si>
-    <t>S220732245XL1323</t>
-  </si>
-  <si>
     <t>220732-Navy Blue-5XL</t>
   </si>
   <si>
     <t>220732-Pink-M</t>
   </si>
   <si>
-    <t>S2207322400M1329</t>
-  </si>
-  <si>
     <t>220732-Red-3XL</t>
   </si>
   <si>
-    <t>S220732243XL1331</t>
-  </si>
-  <si>
     <t>220732-Sky Blue-5XL</t>
   </si>
   <si>
-    <t>S220732245XL1314</t>
-  </si>
-  <si>
     <t>220732-Sky Blue-M</t>
   </si>
   <si>
-    <t>S2207322400M1314</t>
-  </si>
-  <si>
     <t>220732-White-5XL</t>
   </si>
   <si>
-    <t>S220732245XL1339</t>
-  </si>
-  <si>
     <t>220754-Baby Pink-5XL</t>
   </si>
   <si>
-    <t>S220754245XL1301</t>
-  </si>
-  <si>
     <t>220754-White-5XL</t>
   </si>
   <si>
-    <t>S220754245XL1335</t>
-  </si>
-  <si>
     <t>220802-White-5XL</t>
   </si>
   <si>
-    <t>S220802245XL0139</t>
-  </si>
-  <si>
     <t>220804-Maroon-2XL</t>
   </si>
   <si>
-    <t>S22080424XXL1318</t>
-  </si>
-  <si>
     <t>220807-Pink-L</t>
   </si>
   <si>
-    <t>S2208072400L1329</t>
-  </si>
-  <si>
     <t>220843-Pink-XL</t>
   </si>
   <si>
-    <t>S220843240XL1356</t>
-  </si>
-  <si>
     <t>220864-Maroon-2XL</t>
   </si>
   <si>
-    <t>S22086424XXL1318</t>
-  </si>
-  <si>
     <t>276699-Blue-XL</t>
   </si>
   <si>
-    <t>S276699700XL1704</t>
-  </si>
-  <si>
     <t>282214-Blue-L</t>
   </si>
   <si>
-    <t>S2822142400L0704</t>
-  </si>
-  <si>
     <t>282215-Dx Blue-XL</t>
   </si>
   <si>
-    <t>S282215240XL0748</t>
-  </si>
-  <si>
     <t>282219-Dx Blue-2XL</t>
   </si>
   <si>
-    <t>S28221924XXL0748</t>
-  </si>
-  <si>
     <t>282219-Dx Blue-M</t>
   </si>
   <si>
-    <t>S2822192400M0748</t>
-  </si>
-  <si>
     <t>282219-Dx Blue-XL</t>
   </si>
   <si>
-    <t>S282219240XL0748</t>
-  </si>
-  <si>
     <t>282220-Stone Blue-L</t>
   </si>
   <si>
-    <t>S2822202400L0749</t>
-  </si>
-  <si>
     <t>334237-Rust-M</t>
   </si>
   <si>
-    <t>S3342379700M1732</t>
-  </si>
-  <si>
     <t>334242-Rust-S</t>
   </si>
   <si>
-    <t>S3342429700S1932</t>
-  </si>
-  <si>
     <t>353181-White-XL</t>
   </si>
   <si>
-    <t>S353181240XL0139</t>
-  </si>
-  <si>
     <t>353182-White-5XL</t>
   </si>
   <si>
-    <t>S353182245XL0139</t>
-  </si>
-  <si>
     <t>353183-White-2XL</t>
   </si>
   <si>
-    <t>S35318324XXL0139</t>
-  </si>
-  <si>
     <t>353216-Light Blue-M</t>
   </si>
   <si>
-    <t>S3532169700M0214</t>
-  </si>
-  <si>
     <t>353263-Brown-L</t>
   </si>
   <si>
-    <t>S3532639700L3819</t>
-  </si>
-  <si>
     <t>353264-Maroon-M</t>
   </si>
   <si>
-    <t>S3532649700M3818</t>
-  </si>
-  <si>
     <t>353267-Blue-3XL</t>
   </si>
   <si>
-    <t>S353267973XL3804</t>
-  </si>
-  <si>
     <t>353269-Onion -XL</t>
   </si>
   <si>
-    <t>S353269970XL3856</t>
-  </si>
-  <si>
     <t>353281-Teal-3XL</t>
   </si>
   <si>
-    <t>S353281973XL0237</t>
-  </si>
-  <si>
     <t>370279-Dx Blue-32</t>
   </si>
   <si>
-    <t>S370279370320748</t>
-  </si>
-  <si>
     <t>378007-Brown-2XL</t>
   </si>
   <si>
-    <t>S37800724XXL0105</t>
-  </si>
-  <si>
     <t>378158-Peach-M</t>
   </si>
   <si>
-    <t>S3781582400M0128</t>
-  </si>
-  <si>
     <t>496034-Black-3XL</t>
   </si>
   <si>
-    <t>S496034013XL0303</t>
-  </si>
-  <si>
     <t>573213-Dx Blue-38</t>
   </si>
   <si>
-    <t>S573213070380748</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
     <t>Order Quantity</t>
+  </si>
+  <si>
+    <t>0300622400M0109</t>
+  </si>
+  <si>
+    <t>0432409600M1731</t>
+  </si>
+  <si>
+    <t>0556340800L0256</t>
+  </si>
+  <si>
+    <t>0642919700L0748</t>
+  </si>
+  <si>
+    <t>064291970XL0748</t>
+  </si>
+  <si>
+    <t>0643139700L0204</t>
+  </si>
+  <si>
+    <t>0643139700M0215</t>
+  </si>
+  <si>
+    <t>064313970XL0215</t>
+  </si>
+  <si>
+    <t>06431397XXL0256</t>
+  </si>
+  <si>
+    <t>06433897XXL0223</t>
+  </si>
+  <si>
+    <t>0643409700M0209</t>
+  </si>
+  <si>
+    <t>064340970XL0210</t>
+  </si>
+  <si>
+    <t>06434397XXL0227</t>
+  </si>
+  <si>
+    <t>0851512400M0110</t>
+  </si>
+  <si>
+    <t>0851512400L0115</t>
+  </si>
+  <si>
+    <t>08515124XXL0123</t>
+  </si>
+  <si>
+    <t>085241243XL0118</t>
+  </si>
+  <si>
+    <t>085253243XL0109</t>
+  </si>
+  <si>
+    <t>085264245XL0135</t>
+  </si>
+  <si>
+    <t>0852682400M0123</t>
+  </si>
+  <si>
+    <t>09411624XXL0104</t>
+  </si>
+  <si>
+    <t>0941162400L0104</t>
+  </si>
+  <si>
+    <t>0941182400L0141</t>
+  </si>
+  <si>
+    <t>09412024XXL0123</t>
+  </si>
+  <si>
+    <t>0941202400L0123</t>
+  </si>
+  <si>
+    <t>09A02008XXL0223</t>
+  </si>
+  <si>
+    <t>09A02208XXL0229</t>
+  </si>
+  <si>
+    <t>15A0082400M0103</t>
+  </si>
+  <si>
+    <t>180501370480749</t>
+  </si>
+  <si>
+    <t>180514070400755</t>
+  </si>
+  <si>
+    <t>219732240XL0223</t>
+  </si>
+  <si>
+    <t>219775970XL0210</t>
+  </si>
+  <si>
+    <t>220732243XL1355</t>
+  </si>
+  <si>
+    <t>220732245XL1355</t>
+  </si>
+  <si>
+    <t>220732244XL1346</t>
+  </si>
+  <si>
+    <t>220732243XL1341</t>
+  </si>
+  <si>
+    <t>220732245XL1323</t>
+  </si>
+  <si>
+    <t>2207322400M1329</t>
+  </si>
+  <si>
+    <t>220732243XL1331</t>
+  </si>
+  <si>
+    <t>220732245XL1314</t>
+  </si>
+  <si>
+    <t>2207322400M1314</t>
+  </si>
+  <si>
+    <t>220732245XL1339</t>
+  </si>
+  <si>
+    <t>220754245XL1301</t>
+  </si>
+  <si>
+    <t>220754245XL1335</t>
+  </si>
+  <si>
+    <t>220802245XL0139</t>
+  </si>
+  <si>
+    <t>22080424XXL1318</t>
+  </si>
+  <si>
+    <t>2208072400L1329</t>
+  </si>
+  <si>
+    <t>220843240XL1356</t>
+  </si>
+  <si>
+    <t>22086424XXL1318</t>
+  </si>
+  <si>
+    <t>276699700XL1704</t>
+  </si>
+  <si>
+    <t>2822142400L0704</t>
+  </si>
+  <si>
+    <t>282215240XL0748</t>
+  </si>
+  <si>
+    <t>28221924XXL0748</t>
+  </si>
+  <si>
+    <t>2822192400M0748</t>
+  </si>
+  <si>
+    <t>282219240XL0748</t>
+  </si>
+  <si>
+    <t>2822202400L0749</t>
+  </si>
+  <si>
+    <t>3342379700M1732</t>
+  </si>
+  <si>
+    <t>3342429700S1932</t>
+  </si>
+  <si>
+    <t>353181240XL0139</t>
+  </si>
+  <si>
+    <t>353182245XL0139</t>
+  </si>
+  <si>
+    <t>35318324XXL0139</t>
+  </si>
+  <si>
+    <t>3532169700M0214</t>
+  </si>
+  <si>
+    <t>3532639700L3819</t>
+  </si>
+  <si>
+    <t>3532649700M3818</t>
+  </si>
+  <si>
+    <t>353267973XL3804</t>
+  </si>
+  <si>
+    <t>353269970XL3856</t>
+  </si>
+  <si>
+    <t>353281973XL0237</t>
+  </si>
+  <si>
+    <t>370279370320748</t>
+  </si>
+  <si>
+    <t>37800724XXL0105</t>
+  </si>
+  <si>
+    <t>3781582400M0128</t>
+  </si>
+  <si>
+    <t>496034013XL0303</t>
+  </si>
+  <si>
+    <t>573213070380748</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -787,19 +802,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -807,815 +825,818 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>66</v>
-      </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C62">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
       </c>
       <c r="C75">
         <v>83</v>
